--- a/2_40_03_01_ra.xlsx
+++ b/2_40_03_01_ra.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nekruz-s\Desktop\слайды\python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nekruz-s\Desktop\слайды\web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26D8FB5F-8B6E-4167-BB28-D94BC2C34A43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDD9C8C1-EFE1-49AD-A793-A010CE3F4A6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2925" yWindow="1815" windowWidth="23700" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2580" yWindow="1470" windowWidth="23700" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Ахмедов Юсуфчон</t>
   </si>
@@ -105,10 +106,19 @@
     <t>День 16</t>
   </si>
   <si>
-    <t>Оценка</t>
-  </si>
-  <si>
     <t>Гафуров Наимчон</t>
+  </si>
+  <si>
+    <t>Рубеж</t>
+  </si>
+  <si>
+    <t>Защита</t>
+  </si>
+  <si>
+    <t>Чамъбасти цикл</t>
+  </si>
+  <si>
+    <t>Рубеж/Защита</t>
   </si>
 </sst>
 </file>
@@ -130,15 +140,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -161,11 +177,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -176,6 +218,25 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -458,82 +519,172 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C7:T17"/>
+  <dimension ref="B6:W17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="22" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="I7" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
+    <row r="6" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="M6" s="12"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
     </row>
-    <row r="8" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B7" s="6"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="7">
+        <v>45202</v>
+      </c>
+      <c r="F7" s="7">
+        <v>45203</v>
+      </c>
+      <c r="G7" s="7">
+        <v>45204</v>
+      </c>
+      <c r="H7" s="7">
+        <v>45205</v>
+      </c>
+      <c r="I7" s="7">
+        <v>45208</v>
+      </c>
+      <c r="J7" s="7">
+        <v>45209</v>
+      </c>
+      <c r="K7" s="7">
+        <v>45210</v>
+      </c>
+      <c r="L7" s="8">
+        <v>45211</v>
+      </c>
+      <c r="M7" s="8">
+        <v>45212</v>
+      </c>
+      <c r="N7" s="7">
+        <v>45215</v>
+      </c>
+      <c r="O7" s="7">
+        <v>45216</v>
+      </c>
+      <c r="P7" s="7">
+        <v>45217</v>
+      </c>
+      <c r="Q7" s="7">
+        <v>45218</v>
+      </c>
+      <c r="R7" s="7">
+        <v>45219</v>
+      </c>
+      <c r="S7" s="7">
+        <v>45222</v>
+      </c>
+      <c r="T7" s="7">
+        <v>45223</v>
+      </c>
+      <c r="U7" s="8">
+        <v>45224</v>
+      </c>
+      <c r="V7" s="8">
+        <v>45225</v>
+      </c>
+      <c r="W7" s="8">
+        <v>45226</v>
+      </c>
+    </row>
+    <row r="8" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="2" t="s">
+      <c r="E8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" s="2" t="s">
+      <c r="G8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="J8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="K8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="L8" s="2" t="s">
+      <c r="L8" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="M8" s="2" t="s">
+      <c r="M8" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="N8" s="2" t="s">
+      <c r="N8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="O8" s="2" t="s">
+      <c r="O8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="P8" s="2" t="s">
+      <c r="P8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="Q8" s="2" t="s">
+      <c r="Q8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="R8" s="2" t="s">
+      <c r="R8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="S8" s="2" t="s">
+      <c r="S8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="T8" s="2" t="s">
+      <c r="T8" s="5" t="s">
         <v>23</v>
       </c>
+      <c r="U8" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="V8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="W8" s="9" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="9" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C9" s="1">
         <v>1</v>
       </c>
@@ -543,21 +694,42 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
+      <c r="H9" s="2">
+        <v>7</v>
+      </c>
+      <c r="I9" s="2">
+        <v>10</v>
+      </c>
+      <c r="J9" s="2">
+        <v>7</v>
+      </c>
+      <c r="K9" s="2">
+        <v>7</v>
+      </c>
+      <c r="L9" s="10">
+        <v>0</v>
+      </c>
+      <c r="M9" s="10"/>
+      <c r="N9" s="2">
+        <v>8</v>
+      </c>
+      <c r="O9" s="2">
+        <v>7</v>
+      </c>
+      <c r="P9" s="2">
+        <v>7</v>
+      </c>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
+      <c r="S9" s="2">
+        <v>7</v>
+      </c>
       <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
     </row>
-    <row r="10" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C10" s="1">
         <v>2</v>
       </c>
@@ -569,21 +741,48 @@
         <v>7</v>
       </c>
       <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
+      <c r="H10" s="2">
+        <v>7</v>
+      </c>
+      <c r="I10" s="2">
+        <v>8</v>
+      </c>
+      <c r="J10" s="2">
+        <v>8</v>
+      </c>
+      <c r="K10" s="2">
+        <v>7</v>
+      </c>
+      <c r="L10" s="10">
+        <v>6</v>
+      </c>
+      <c r="M10" s="10">
+        <v>7</v>
+      </c>
+      <c r="N10" s="2">
+        <v>8</v>
+      </c>
+      <c r="O10" s="2">
+        <v>7</v>
+      </c>
+      <c r="P10" s="2">
+        <v>8</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>7</v>
+      </c>
+      <c r="R10" s="2">
+        <v>10</v>
+      </c>
+      <c r="S10" s="2">
+        <v>8</v>
+      </c>
       <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
     </row>
-    <row r="11" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C11" s="1">
         <v>3</v>
       </c>
@@ -597,21 +796,48 @@
         <v>10</v>
       </c>
       <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
+      <c r="H11" s="2">
+        <v>7</v>
+      </c>
+      <c r="I11" s="2">
+        <v>8</v>
+      </c>
+      <c r="J11" s="2">
+        <v>8</v>
+      </c>
+      <c r="K11" s="2">
+        <v>7</v>
+      </c>
+      <c r="L11" s="10">
+        <v>6</v>
+      </c>
+      <c r="M11" s="10">
+        <v>8</v>
+      </c>
+      <c r="N11" s="2">
+        <v>8</v>
+      </c>
+      <c r="O11" s="2">
+        <v>7</v>
+      </c>
+      <c r="P11" s="2">
+        <v>7</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>8</v>
+      </c>
+      <c r="R11" s="2">
+        <v>8</v>
+      </c>
+      <c r="S11" s="2">
+        <v>8</v>
+      </c>
       <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
     </row>
-    <row r="12" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C12" s="1">
         <v>4</v>
       </c>
@@ -628,18 +854,37 @@
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
+      <c r="K12" s="2">
+        <v>7</v>
+      </c>
+      <c r="L12" s="10">
+        <v>10</v>
+      </c>
+      <c r="M12" s="10"/>
+      <c r="N12" s="2">
+        <v>10</v>
+      </c>
+      <c r="O12" s="2">
+        <v>9</v>
+      </c>
+      <c r="P12" s="2">
+        <v>10</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>8</v>
+      </c>
+      <c r="R12" s="2">
+        <v>10</v>
+      </c>
+      <c r="S12" s="2">
+        <v>8</v>
+      </c>
       <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
     </row>
-    <row r="13" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C13" s="1">
         <v>5</v>
       </c>
@@ -655,21 +900,42 @@
       <c r="G13" s="2">
         <v>10</v>
       </c>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
+      <c r="H13" s="2">
+        <v>10</v>
+      </c>
+      <c r="I13" s="2">
+        <v>9</v>
+      </c>
+      <c r="J13" s="2">
+        <v>8</v>
+      </c>
+      <c r="K13" s="2">
+        <v>7</v>
+      </c>
+      <c r="L13" s="10">
+        <v>9</v>
+      </c>
+      <c r="M13" s="10"/>
+      <c r="N13" s="2">
+        <v>10</v>
+      </c>
+      <c r="O13" s="2">
+        <v>9</v>
+      </c>
+      <c r="P13" s="2">
+        <v>10</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>8</v>
+      </c>
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="2"/>
     </row>
-    <row r="14" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C14" s="1">
         <v>6</v>
       </c>
@@ -681,21 +947,42 @@
         <v>10</v>
       </c>
       <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
+      <c r="H14" s="2">
+        <v>8</v>
+      </c>
+      <c r="I14" s="2">
+        <v>10</v>
+      </c>
+      <c r="J14" s="2">
+        <v>8</v>
+      </c>
+      <c r="K14" s="2">
+        <v>7</v>
+      </c>
+      <c r="L14" s="10">
+        <v>9</v>
+      </c>
+      <c r="M14" s="10"/>
+      <c r="N14" s="2">
+        <v>8</v>
+      </c>
+      <c r="O14" s="2">
+        <v>7</v>
+      </c>
+      <c r="P14" s="2">
+        <v>7</v>
+      </c>
       <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
+      <c r="R14" s="2">
+        <v>8</v>
+      </c>
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
     </row>
-    <row r="15" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C15" s="1">
         <v>7</v>
       </c>
@@ -709,21 +996,44 @@
       <c r="G15" s="2">
         <v>10</v>
       </c>
-      <c r="H15" s="2"/>
+      <c r="H15" s="2">
+        <v>7</v>
+      </c>
       <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
+      <c r="J15" s="2">
+        <v>7</v>
+      </c>
+      <c r="K15" s="2">
+        <v>7</v>
+      </c>
+      <c r="L15" s="10">
+        <v>6</v>
+      </c>
+      <c r="M15" s="10">
+        <v>9</v>
+      </c>
+      <c r="N15" s="2">
+        <v>7</v>
+      </c>
+      <c r="O15" s="2">
+        <v>7</v>
+      </c>
+      <c r="P15" s="2">
+        <v>7</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>7</v>
+      </c>
+      <c r="R15" s="2">
+        <v>10</v>
+      </c>
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="2"/>
     </row>
-    <row r="16" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C16" s="1">
         <v>8</v>
       </c>
@@ -738,29 +1048,48 @@
         <v>10</v>
       </c>
       <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
+      <c r="I16" s="2">
+        <v>10</v>
+      </c>
+      <c r="J16" s="2">
+        <v>8</v>
+      </c>
+      <c r="K16" s="2">
+        <v>7</v>
+      </c>
+      <c r="L16" s="10">
+        <v>10</v>
+      </c>
+      <c r="M16" s="10">
+        <v>8</v>
+      </c>
+      <c r="N16" s="2">
+        <v>10</v>
+      </c>
+      <c r="O16" s="2">
+        <v>8</v>
+      </c>
+      <c r="P16" s="2">
+        <v>8</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>8</v>
+      </c>
       <c r="R16" s="2"/>
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
     </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C17" s="3">
         <v>9</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E17" s="2">
-        <v>10</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -776,12 +1105,27 @@
       <c r="R17" s="2"/>
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="I7:O7"/>
+    <mergeCell ref="L6:M6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9412F110-7B41-4182-822E-2E89727B4844}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>